--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowHeight="16280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>借出项目</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>每个月2号前换230，持续12个月，次年9月2号还清本金</t>
+  </si>
+  <si>
+    <t>2021年10月21日还2100元</t>
   </si>
   <si>
     <t>利润</t>
@@ -111,6 +114,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,36 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,12 +144,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -177,40 +234,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,38 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,19 +272,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,157 +416,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,17 +460,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,13 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,35 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,153 +537,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,54 +726,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1037,20 +1040,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="4" max="4" width="56.4038461538462" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1127,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>4000</v>
       </c>
@@ -1137,8 +1140,11 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>3000</v>
       </c>
@@ -1147,6 +1153,9 @@
       </c>
       <c r="D7" t="s">
         <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1160,12 +1169,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44460</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="7:8">
@@ -1180,25 +1200,25 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>58500</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>60510</v>
+        <v>62510</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>8500</v>
@@ -1206,7 +1226,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2000</v>
@@ -1214,7 +1234,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>13000</v>
@@ -1222,7 +1242,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -1230,11 +1250,11 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>85010</v>
+        <v>87010</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16280"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>借出项目</t>
   </si>
@@ -49,22 +49,28 @@
     <t>每个月5号前支付1600，持续6个月，连本带息还清</t>
   </si>
   <si>
+    <t>已还二期</t>
+  </si>
+  <si>
+    <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
+  </si>
+  <si>
+    <t>每个月20号前还2050，共两个月</t>
+  </si>
+  <si>
     <t>已还一期</t>
   </si>
   <si>
-    <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
-  </si>
-  <si>
-    <t>每个月20号前还2050，共两个月</t>
-  </si>
-  <si>
     <t>每个月20号前还1050，共三个月</t>
   </si>
   <si>
-    <t>每个月2号前换230，持续12个月，次年9月2号还清本金</t>
+    <t>每个月2号前还230，持续12个月，次年9月2号还清本金</t>
   </si>
   <si>
     <t>2021年10月21日还2100元</t>
+  </si>
+  <si>
+    <t>每个月7号前支付175利息，最后还清本金</t>
   </si>
   <si>
     <t>利润</t>
@@ -99,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,23 +120,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,25 +224,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,28 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,63 +257,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -266,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +505,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,21 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,162 +563,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,54 +732,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1040,20 +1046,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="56.4038461538462" customWidth="1"/>
+    <col min="4" max="4" width="56.4" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1141,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1152,10 +1158,10 @@
         <v>44428</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1166,7 +1172,7 @@
         <v>44440</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1177,48 +1183,59 @@
         <v>44460</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44476</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14">
-        <f>1000+600+150+100+150+2760+600*4</f>
-        <v>7160</v>
+        <f>1000+600+600+150+100+230*12+175*4</f>
+        <v>5910</v>
       </c>
       <c r="H14">
-        <f>2000+1600+1550</f>
-        <v>5150</v>
+        <f>2000+1600+1550+1600+1550</f>
+        <v>8300</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>60500</v>
+        <v>65500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>62510</v>
+        <v>63110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>8500</v>
@@ -1226,15 +1243,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>13000</v>
@@ -1242,19 +1259,19 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>87010</v>
+        <v>85010</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>借出项目</t>
   </si>
@@ -49,7 +49,7 @@
     <t>每个月5号前支付1600，持续6个月，连本带息还清</t>
   </si>
   <si>
-    <t>已还二期</t>
+    <t>已还一期</t>
   </si>
   <si>
     <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
@@ -58,9 +58,6 @@
     <t>每个月20号前还2050，共两个月</t>
   </si>
   <si>
-    <t>已还一期</t>
-  </si>
-  <si>
     <t>每个月20号前还1050，共三个月</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>2021年10月21日还2100元</t>
   </si>
   <si>
-    <t>每个月7号前支付175利息，最后还清本金</t>
+    <t>每个月1号前支付175利息，最后还清本金</t>
   </si>
   <si>
     <t>利润</t>
@@ -105,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -126,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -133,6 +138,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -140,8 +160,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,48 +214,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,48 +238,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,37 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,145 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +460,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,8 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,32 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1048,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1147,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1158,10 +1155,10 @@
         <v>44428</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1172,7 +1169,7 @@
         <v>44440</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1183,7 +1180,7 @@
         <v>44460</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1191,33 +1188,33 @@
         <v>5000</v>
       </c>
       <c r="C10" s="4">
-        <v>44476</v>
+        <v>44470</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14">
-        <f>1000+600+600+150+100+230*12+175*4</f>
-        <v>5910</v>
+        <f>1000+600+600+150+100+230*12+175*4+100</f>
+        <v>6010</v>
       </c>
       <c r="H14">
-        <f>2000+1600+1550+1600+1550</f>
-        <v>8300</v>
+        <f>2000+1600+1550+2050+1050</f>
+        <v>8250</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
@@ -1226,52 +1223,52 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>63110</v>
+        <v>63260</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>8500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>13000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>85010</v>
+        <v>85060</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="20805" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>借出项目</t>
   </si>
@@ -37,27 +37,30 @@
     <t>每个月10号前支付1k，持续6个月，连本带息还清</t>
   </si>
   <si>
-    <t>已还两个月</t>
+    <t>已还三个月</t>
   </si>
   <si>
     <t>每个月10号前支付利息600，2022年2月份之前还清本金</t>
   </si>
   <si>
-    <t>9月及之前利息已还</t>
+    <t>10月及之前利息已还</t>
   </si>
   <si>
     <t>每个月5号前支付1600，持续6个月，连本带息还清</t>
   </si>
   <si>
+    <t>已还两期</t>
+  </si>
+  <si>
+    <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
+  </si>
+  <si>
+    <t>每个月20号前还2050，共两个月</t>
+  </si>
+  <si>
     <t>已还一期</t>
   </si>
   <si>
-    <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
-  </si>
-  <si>
-    <t>每个月20号前还2050，共两个月</t>
-  </si>
-  <si>
     <t>每个月20号前还1050，共三个月</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>2021年10月21日还2100元</t>
   </si>
   <si>
-    <t>每个月1号前支付175利息，最后还清本金</t>
+    <t>每个月1号前支付350利息，最后还清本金</t>
   </si>
   <si>
     <t>利润</t>
@@ -117,22 +120,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,67 +172,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +201,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -222,19 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,16 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,32 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,9 +483,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,15 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +530,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1051,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1144,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1155,10 +1158,10 @@
         <v>44428</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1169,7 +1172,7 @@
         <v>44440</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1180,75 +1183,75 @@
         <v>44460</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="4">
-        <v>44470</v>
+        <v>44476</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="7:8">
       <c r="G14">
-        <f>1000+600+600+150+100+230*12+175*4+100</f>
-        <v>6010</v>
+        <f>1000+200*2+600+150+100+230*12+350*4+100+240*4</f>
+        <v>7470</v>
       </c>
       <c r="H14">
-        <f>2000+1600+1550+2050+1050</f>
-        <v>8250</v>
+        <f>3000+1600+1600+1550+1550+2050+1050</f>
+        <v>12400</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>65500</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>63260</v>
+        <v>65570</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>9500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>11000</v>
@@ -1256,19 +1259,19 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>85060</v>
+        <v>86570</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20805" windowHeight="12960"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>借出项目</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>每个月1号前支付350利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每个月11号前支付100利息，最后还清本金</t>
   </si>
   <si>
     <t>利润</t>
@@ -105,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -120,6 +123,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,22 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,7 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,25 +191,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,21 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -240,6 +236,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -272,6 +275,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,31 +323,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,25 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,19 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,61 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +466,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,17 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,21 +530,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1054,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1197,12 +1200,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44480</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="13" spans="7:8">
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="7:8">
@@ -1217,25 +1231,25 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>70500</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>65570</v>
+        <v>68570</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>9000</v>
@@ -1243,7 +1257,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1251,15 +1265,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>11000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -1267,11 +1281,11 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>86570</v>
+        <v>85570</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20805" windowHeight="12960"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>借出项目</t>
   </si>
@@ -40,7 +40,7 @@
     <t>已还三个月</t>
   </si>
   <si>
-    <t>每个月10号前支付利息600，2022年2月份之前还清本金</t>
+    <t>每个月10号前支付利息200，2022年2月份之前还清本金</t>
   </si>
   <si>
     <t>10月及之前利息已还</t>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>每个月1号前支付350利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每个月11号前支付100利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每一个月16号前支付150利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每一个月5号前支付240利息，最后还清本金</t>
   </si>
   <si>
     <t>利润</t>
@@ -105,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,14 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,47 +149,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,23 +174,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,37 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,19 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,27 +475,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -507,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,8 +540,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -568,148 +577,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,54 +741,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1046,20 +1055,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="56.4" customWidth="1"/>
+    <col min="4" max="4" width="56.4038461538462" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1096,7 +1105,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1197,12 +1206,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="7:8">
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44480</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44485</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44474</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="7:8">
@@ -1217,25 +1257,25 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>70500</v>
+        <v>78500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>65570</v>
+        <v>73570</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>9000</v>
@@ -1243,7 +1283,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1251,15 +1291,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>11000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -1267,11 +1307,11 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>86570</v>
+        <v>90570</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -55,10 +55,7 @@
     <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
   </si>
   <si>
-    <t>每个月20号前还2050，共两个月</t>
-  </si>
-  <si>
-    <t>已还一期</t>
+    <t>每个月20号前还1025，共两个月</t>
   </si>
   <si>
     <t>每个月20号前还1050，共三个月</t>
@@ -67,7 +64,7 @@
     <t>每个月2号前还230，持续12个月，次年9月2号还清本金</t>
   </si>
   <si>
-    <t>2021年10月21日还2100元</t>
+    <t>每一月21号支付100利息，最后还清</t>
   </si>
   <si>
     <t>每个月1号前支付350利息，最后还清本金</t>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>收回</t>
+  </si>
+  <si>
+    <t>每一个月25号前支付35利息，最后还清本金</t>
   </si>
   <si>
     <t>本金</t>
@@ -115,9 +115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,23 +129,131 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,118 +265,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +500,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -534,26 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,153 +528,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,8 +1059,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1145,18 +1145,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:4">
       <c r="B6">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C6" s="4">
-        <v>44428</v>
+        <v>44489</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1167,13 +1164,13 @@
         <v>44428</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8">
         <v>16000</v>
       </c>
@@ -1181,10 +1178,13 @@
         <v>44440</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9">
         <v>2000</v>
       </c>
@@ -1192,7 +1192,10 @@
         <v>44460</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1203,7 +1206,7 @@
         <v>44476</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1214,7 +1217,7 @@
         <v>44480</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1225,7 +1228,7 @@
         <v>44485</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -1236,16 +1239,25 @@
         <v>44474</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44494</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="7:8">
       <c r="G14">
         <f>1000+200*2+600+150+100+230*12+350*4+100+240*4</f>
         <v>7470</v>
@@ -1261,7 +1273,7 @@
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>78500</v>
+        <v>77500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1270,7 +1282,7 @@
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>73570</v>
+        <v>72570</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1278,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1289,12 +1301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>28</v>
-      </c>
-      <c r="B22">
-        <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1311,7 +1320,7 @@
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>90570</v>
+        <v>83570</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>每一月21号支付100利息，最后还清</t>
   </si>
   <si>
-    <t>每个月1号前支付350利息，最后还清本金</t>
+    <t>每个月5号前支付350利息，最后还清本金</t>
   </si>
   <si>
     <t>每个月11号前支付100利息，最后还清本金</t>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,9 +144,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,85 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,10 +212,56 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,13 +293,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +377,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,133 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,9 +477,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,41 +566,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -577,139 +577,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1203,7 +1203,7 @@
         <v>10000</v>
       </c>
       <c r="C10" s="4">
-        <v>44476</v>
+        <v>44474</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>借出项目</t>
   </si>
@@ -37,76 +37,88 @@
     <t>每个月10号前支付1k，持续6个月，连本带息还清</t>
   </si>
   <si>
-    <t>已还三个月</t>
+    <t>已还四个月</t>
   </si>
   <si>
     <t>每个月10号前支付利息200，2022年2月份之前还清本金</t>
   </si>
   <si>
-    <t>10月及之前利息已还</t>
+    <t>11月及之前利息已还</t>
   </si>
   <si>
     <t>每个月5号前支付1600，持续6个月，连本带息还清</t>
   </si>
   <si>
+    <t>已还三期</t>
+  </si>
+  <si>
+    <t>每个月20号前还1025，共两个月</t>
+  </si>
+  <si>
+    <t>每个月20号前还1050，共三个月</t>
+  </si>
+  <si>
     <t>已还两期</t>
   </si>
   <si>
+    <t>每个月2号前还230，持续12个月，次年9月2号还清本金</t>
+  </si>
+  <si>
+    <t>每一月21号支付100利息，最后还清</t>
+  </si>
+  <si>
+    <t>每个月5号前支付350利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>11月利息已还</t>
+  </si>
+  <si>
+    <t>每个月11号前支付100利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每一个月16号前支付150利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每一个月5号前支付240利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>每一个月25号前支付35利息，最后还清本金</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>收回</t>
+  </si>
+  <si>
+    <t>每月5号，支付利息100，最后还清本金</t>
+  </si>
+  <si>
+    <t>每月5号，支付利息150，最后还清本金</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>外债总计金额</t>
+  </si>
+  <si>
+    <t>基金账户余额</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>奖学金</t>
+  </si>
+  <si>
+    <t>zyb工资余额</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
     <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
-  </si>
-  <si>
-    <t>每个月20号前还1025，共两个月</t>
-  </si>
-  <si>
-    <t>每个月20号前还1050，共三个月</t>
-  </si>
-  <si>
-    <t>每个月2号前还230，持续12个月，次年9月2号还清本金</t>
-  </si>
-  <si>
-    <t>每一月21号支付100利息，最后还清</t>
-  </si>
-  <si>
-    <t>每个月5号前支付350利息，最后还清本金</t>
-  </si>
-  <si>
-    <t>每个月11号前支付100利息，最后还清本金</t>
-  </si>
-  <si>
-    <t>每一个月16号前支付150利息，最后还清本金</t>
-  </si>
-  <si>
-    <t>每一个月5号前支付240利息，最后还清本金</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>收回</t>
-  </si>
-  <si>
-    <t>每一个月25号前支付35利息，最后还清本金</t>
-  </si>
-  <si>
-    <t>本金</t>
-  </si>
-  <si>
-    <t>外债总计金额</t>
-  </si>
-  <si>
-    <t>基金账户余额</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>奖学金</t>
-  </si>
-  <si>
-    <t>zyb工资余额</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -115,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -135,36 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,7 +156,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +194,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +214,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -213,6 +240,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -220,53 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,25 +299,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,139 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,10 +489,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -495,10 +505,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -520,21 +571,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -548,177 +584,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1131,54 +1143,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:4">
       <c r="B5">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="C5" s="4">
-        <v>44415</v>
+        <v>44489</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C6" s="4">
-        <v>44489</v>
+        <v>44428</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="C7" s="4">
-        <v>44428</v>
+        <v>44440</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="4">
-        <v>44440</v>
+        <v>44460</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1186,116 +1198,130 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="C9" s="4">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="C10" s="4">
-        <v>44474</v>
+        <v>44480</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="C11" s="4">
-        <v>44480</v>
+        <v>44485</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44474</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44485</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C13" s="4">
-        <v>44474</v>
+        <v>44494</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C14" s="4">
-        <v>44494</v>
+        <v>44505</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <f>1000+200*2+600+150+100+230*12+350*4+100+240*4</f>
-        <v>7470</v>
+        <f>1000+200*2+600+50+50+230*9+350*4+100+240*4+100*3+150*3+240*3+35*3+250*3</f>
+        <v>8955</v>
       </c>
       <c r="H14">
-        <f>3000+1600+1600+1550+1550+2050+1050</f>
-        <v>12400</v>
+        <f>4000+1600*3+2000</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44505</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>77500</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <f>B17+G14-H14</f>
-        <v>72570</v>
+        <v>80155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1303,24 +1329,38 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B23)</f>
-        <v>83570</v>
+        <v>84955</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>4500</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44415</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/money.xlsx
+++ b/_posts/money.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14720"/>
+    <workbookView windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>借出项目</t>
   </si>
@@ -55,18 +55,9 @@
     <t>每个月20号前还1025，共两个月</t>
   </si>
   <si>
-    <t>每个月20号前还1050，共三个月</t>
-  </si>
-  <si>
-    <t>已还两期</t>
-  </si>
-  <si>
     <t>每个月2号前还230，持续12个月，次年9月2号还清本金</t>
   </si>
   <si>
-    <t>每一月21号支付100利息，最后还清</t>
-  </si>
-  <si>
     <t>每个月5号前支付350利息，最后还清本金</t>
   </si>
   <si>
@@ -82,7 +73,16 @@
     <t>每一个月5号前支付240利息，最后还清本金</t>
   </si>
   <si>
-    <t>每一个月25号前支付35利息，最后还清本金</t>
+    <t>每月5号，支付利息100，最后还清本金</t>
+  </si>
+  <si>
+    <t>每月5号，支付利息150，最后还清本金</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>外债总计金额</t>
   </si>
   <si>
     <t>利润</t>
@@ -91,18 +91,6 @@
     <t>收回</t>
   </si>
   <si>
-    <t>每月5号，支付利息100，最后还清本金</t>
-  </si>
-  <si>
-    <t>每月5号，支付利息150，最后还清本金</t>
-  </si>
-  <si>
-    <t>本金</t>
-  </si>
-  <si>
-    <t>外债总计金额</t>
-  </si>
-  <si>
     <t>基金账户余额</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
   </si>
   <si>
     <t>总计</t>
-  </si>
-  <si>
-    <t>每个月7号前支付1550，持续3个月，连本带息还清</t>
   </si>
 </sst>
 </file>
@@ -126,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,9 +126,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,6 +191,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -162,45 +214,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,9 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,56 +262,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -293,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,17 +475,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,8 +514,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +547,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -584,153 +560,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1156,212 +1141,170 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="C6" s="4">
-        <v>44428</v>
+        <v>44440</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="C7" s="4">
-        <v>44440</v>
+        <v>44474</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C8" s="4">
-        <v>44460</v>
+        <v>44480</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="C9" s="4">
-        <v>44474</v>
+        <v>44485</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44474</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
-        <v>3000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44480</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="E10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44505</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
         <v>5000</v>
       </c>
-      <c r="C11" s="4">
-        <v>44485</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" s="4">
+        <v>44505</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>10000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44474</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44494</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B16">
+        <f>B15+G18-H18</f>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14">
-        <v>4000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44505</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="G14">
-        <f>1000+200*2+600+50+50+230*9+350*4+100+240*4+100*3+150*3+240*3+35*3+250*3</f>
-        <v>8955</v>
-      </c>
-      <c r="H14">
-        <f>4000+1600*3+2000</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>5000</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44505</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B18">
+        <v>6000</v>
+      </c>
+      <c r="G18">
+        <f>850+200*2+600+50+50+230*9+350*4+100+240*4+100*3+150*3+240*3+250*3</f>
+        <v>8700</v>
+      </c>
+      <c r="H18">
+        <f>4000+1600*3</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>27</v>
-      </c>
-      <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>82000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <f>B17+G14-H14</f>
-        <v>80155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>4500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <f>SUM(B18:B23)</f>
-        <v>84955</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29">
-        <v>4500</v>
-      </c>
-      <c r="C29" s="4">
-        <v>44415</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B16:B21)</f>
+        <v>82200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
